--- a/2020/February/All Details/20.02.2020/MC Balance Transfer Feb'2020.xlsx
+++ b/2020/February/All Details/20.02.2020/MC Balance Transfer Feb'2020.xlsx
@@ -1181,7 +1181,7 @@
         <xdr:cNvPr id="1317" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1193,7 +1193,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1216,14 +1216,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1531,9 +1531,9 @@
   <dimension ref="A1:BI231"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3181,14 +3181,14 @@
         <v>229635</v>
       </c>
       <c r="C22" s="2">
-        <v>3310</v>
+        <v>263310</v>
       </c>
       <c r="D22" s="2">
         <v>2100</v>
       </c>
       <c r="E22" s="2">
         <f>C22+D22</f>
-        <v>5410</v>
+        <v>265410</v>
       </c>
       <c r="F22" s="134"/>
       <c r="G22" s="19"/>
@@ -3941,7 +3941,7 @@
       </c>
       <c r="C33" s="2">
         <f>SUM(C5:C32)</f>
-        <v>6648153</v>
+        <v>6908153</v>
       </c>
       <c r="D33" s="2">
         <f>SUM(D5:D32)</f>
@@ -3949,11 +3949,11 @@
       </c>
       <c r="E33" s="2">
         <f>SUM(E5:E32)</f>
-        <v>6669743</v>
+        <v>6929743</v>
       </c>
       <c r="F33" s="94">
         <f>B33-E33</f>
-        <v>137547</v>
+        <v>-122453</v>
       </c>
       <c r="G33" s="114"/>
       <c r="H33" s="124"/>
@@ -4154,11 +4154,11 @@
       </c>
       <c r="E36" s="133">
         <f>F33-C98+K121</f>
-        <v>229853</v>
+        <v>0</v>
       </c>
       <c r="F36" s="90">
         <f>F33-C98-I43-I42+K121-C103</f>
-        <v>229853</v>
+        <v>0</v>
       </c>
       <c r="G36" s="114"/>
       <c r="H36" s="124"/>
@@ -4718,7 +4718,7 @@
       <c r="A44" s="73"/>
       <c r="B44" s="74"/>
       <c r="C44" s="75">
-        <v>0</v>
+        <v>3253</v>
       </c>
       <c r="D44" s="76"/>
       <c r="E44" s="3"/>
@@ -5109,10 +5109,10 @@
       </c>
       <c r="B50" s="43"/>
       <c r="C50" s="98">
-        <v>99410</v>
+        <v>99350</v>
       </c>
       <c r="D50" s="102" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="12"/>
@@ -5245,10 +5245,10 @@
       </c>
       <c r="B52" s="43"/>
       <c r="C52" s="98">
-        <v>198658</v>
+        <v>198318</v>
       </c>
       <c r="D52" s="102" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="12"/>
@@ -5523,10 +5523,10 @@
       </c>
       <c r="B56" s="43"/>
       <c r="C56" s="98">
-        <v>105495</v>
+        <v>94495</v>
       </c>
       <c r="D56" s="97" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="43"/>
@@ -5799,10 +5799,10 @@
       </c>
       <c r="B60" s="43"/>
       <c r="C60" s="98">
-        <v>149360</v>
+        <v>127360</v>
       </c>
       <c r="D60" s="99" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="43"/>
@@ -8575,7 +8575,7 @@
       <c r="B98" s="154"/>
       <c r="C98" s="45">
         <f>SUM(C37:C97)</f>
-        <v>1809667</v>
+        <v>1779520</v>
       </c>
       <c r="D98" s="41"/>
       <c r="F98" s="23"/>
@@ -8710,7 +8710,7 @@
       <c r="B100" s="152"/>
       <c r="C100" s="42">
         <f>C98+L121</f>
-        <v>1809667</v>
+        <v>1779520</v>
       </c>
       <c r="D100" s="26"/>
       <c r="F100" s="24"/>
